--- a/PartnersUsers/Documentacion_Partners.xlsx
+++ b/PartnersUsers/Documentacion_Partners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layuso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E235D-3FC9-4048-8440-5AD6C76B5A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3E4CA-E69D-433A-A5CA-4E557A913502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15990" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{2CC01ADC-0410-4C57-B2E8-319D621FFB9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CC01ADC-0410-4C57-B2E8-319D621FFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Partners" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="148">
   <si>
     <t>JSON</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Número del teléfono móvil del contacto.</t>
   </si>
   <si>
-    <t>Impedir que el usuario acceda al portal en su próxima conexión.</t>
-  </si>
-  <si>
     <t>array</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
   </si>
   <si>
     <t>1.3.9</t>
-  </si>
-  <si>
-    <t>1.3.10</t>
   </si>
   <si>
     <t xml:space="preserve">Objeto contenedor de la informacion de cada usuario. </t>
@@ -663,9 +657,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,9 +716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259772</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>359353</xdr:rowOff>
+      <xdr:rowOff>372341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -751,7 +745,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="378127" y="80119"/>
-          <a:ext cx="990009" cy="279234"/>
+          <a:ext cx="1206487" cy="292222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1084,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC52316-64EE-4196-AA06-F3BDEB6A5849}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,26 +1096,26 @@
     <col min="10" max="11" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="27" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="27"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="H1" s="30"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1129,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="17"/>
@@ -1171,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1185,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1194,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="17"/>
@@ -1236,10 +1230,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="14">
         <v>128</v>
@@ -1261,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="17"/>
@@ -1298,44 +1292,44 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>62</v>
+      <c r="C11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="14">
         <v>255</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>27</v>
@@ -1350,19 +1344,19 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="14">
         <v>64</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>27</v>
@@ -1377,19 +1371,19 @@
     <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="14">
         <v>255</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>27</v>
@@ -1404,10 +1398,10 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>16</v>
@@ -1427,60 +1421,60 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>62</v>
+      <c r="I16" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="14">
         <v>38</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>17</v>
@@ -1502,7 +1496,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>10</v>
@@ -1527,10 +1521,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>19</v>
@@ -1539,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>27</v>
@@ -1554,10 +1548,10 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>21</v>
@@ -1579,10 +1573,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>21</v>
@@ -1604,10 +1598,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>21</v>
@@ -1629,10 +1623,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>21</v>
@@ -1654,19 +1648,19 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>27</v>
@@ -1681,10 +1675,10 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>22</v>
@@ -1706,10 +1700,10 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>22</v>
@@ -1731,10 +1725,10 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>22</v>
@@ -1756,10 +1750,10 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>22</v>
@@ -1781,10 +1775,10 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>22</v>
@@ -1806,10 +1800,10 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>22</v>
@@ -1831,10 +1825,10 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>22</v>
@@ -1856,10 +1850,10 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>22</v>
@@ -1881,10 +1875,10 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>22</v>
@@ -1906,10 +1900,10 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>24</v>
@@ -1931,10 +1925,10 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>24</v>
@@ -1956,10 +1950,10 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>23</v>
@@ -1979,10 +1973,10 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>23</v>
@@ -2002,10 +1996,10 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>25</v>
@@ -2027,10 +2021,10 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>25</v>
@@ -2052,10 +2046,10 @@
     <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>33</v>
@@ -2079,10 +2073,10 @@
     <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>26</v>
@@ -2109,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="17"/>
@@ -2146,58 +2140,58 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>45</v>
+      <c r="C45" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>40</v>
@@ -2219,13 +2213,13 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="E48" s="14">
         <v>64</v>
@@ -2244,7 +2238,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>35</v>
@@ -2269,7 +2263,7 @@
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>36</v>
@@ -2281,7 +2275,7 @@
         <v>512</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>8</v>
@@ -2296,19 +2290,19 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="14">
         <v>2</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>8</v>
@@ -2323,7 +2317,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>38</v>
@@ -2348,25 +2342,25 @@
     <row r="53" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>31</v>
@@ -2375,19 +2369,19 @@
     <row r="54" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>27</v>
@@ -2396,33 +2390,6 @@
         <v>28</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="10" t="s">
         <v>31</v>
       </c>
     </row>

--- a/PartnersUsers/Documentacion_Partners.xlsx
+++ b/PartnersUsers/Documentacion_Partners.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layuso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/WORKPLACE/CREA Y CRECE/API_JSON/PORTAL/Partners/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3E4CA-E69D-433A-A5CA-4E557A913502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F5BB1F-B2D0-4BDE-BB7B-5A0D532ABF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CC01ADC-0410-4C57-B2E8-319D621FFB9D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CC01ADC-0410-4C57-B2E8-319D621FFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Partners" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="153">
   <si>
     <t>JSON</t>
   </si>
@@ -246,16 +246,10 @@
     <t>Direccion.</t>
   </si>
   <si>
-    <t>Array de string</t>
-  </si>
-  <si>
     <t>ISO 3166-1:2006 Alpha-2.</t>
   </si>
   <si>
     <t>Identificador unico del partner. Esta información se utiliza en los intercambios con el cliente y en los documentos asociados con el partner.</t>
-  </si>
-  <si>
-    <t>Habilitar  usuario Yes or No</t>
   </si>
   <si>
     <t>Código de VAT intracomunitario. Obligatorio si 'Registration' or 'Reference' están rellenos. (CIF)</t>
@@ -451,37 +445,58 @@
     <t>user</t>
   </si>
   <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
     <t>1.3.1</t>
   </si>
   <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>1.3.4</t>
-  </si>
-  <si>
-    <t>1.3.5</t>
-  </si>
-  <si>
-    <t>1.3.6</t>
-  </si>
-  <si>
-    <t>1.3.7</t>
-  </si>
-  <si>
-    <t>1.3.8</t>
-  </si>
-  <si>
-    <t>1.3.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objeto contenedor de la informacion de cada usuario. </t>
   </si>
   <si>
     <t>Grupo de registro de los Usuarios.</t>
+  </si>
+  <si>
+    <t>Impedir que el usuario acceda al portal en su próxima conexión.</t>
+  </si>
+  <si>
+    <t>1.3.1.2</t>
+  </si>
+  <si>
+    <t>1.3.1.3</t>
+  </si>
+  <si>
+    <t>1.3.1.4</t>
+  </si>
+  <si>
+    <t>1.3.1.5</t>
+  </si>
+  <si>
+    <t>1.3.1.6</t>
+  </si>
+  <si>
+    <t>1.3.1.7</t>
+  </si>
+  <si>
+    <t>1.3.1.8</t>
+  </si>
+  <si>
+    <t>1.3.1.9</t>
+  </si>
+  <si>
+    <t>1.3.1.10</t>
+  </si>
+  <si>
+    <t>1.2.5.1.1</t>
+  </si>
+  <si>
+    <t>Array de líneas de dirección</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes or no </t>
+  </si>
+  <si>
+    <t>Habilitar  usuario</t>
   </si>
 </sst>
 </file>
@@ -604,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,6 +701,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC52316-64EE-4196-AA06-F3BDEB6A5849}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="17"/>
@@ -1165,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1233,7 +1251,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="14">
         <v>128</v>
@@ -1255,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="17"/>
@@ -1297,10 +1315,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -1317,13 +1335,13 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="14">
         <v>255</v>
@@ -1344,13 +1362,13 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="14">
         <v>64</v>
@@ -1371,13 +1389,13 @@
     <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="14">
         <v>255</v>
@@ -1398,7 +1416,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>50</v>
@@ -1423,7 +1441,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>51</v>
@@ -1446,47 +1464,40 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="14">
-        <v>38</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="H17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E18" s="14">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -1496,16 +1507,16 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="14">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="12" t="s">
@@ -1521,20 +1532,18 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>70</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E20" s="14">
+        <v>128</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="G20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1548,18 +1557,20 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="14">
-        <v>256</v>
-      </c>
-      <c r="F21" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="G21" s="12" t="s">
         <v>27</v>
       </c>
@@ -1573,16 +1584,16 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="14">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="12" t="s">
@@ -1598,10 +1609,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>21</v>
@@ -1623,16 +1634,16 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="14">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="12" t="s">
@@ -1648,24 +1659,22 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="14">
+        <v>128</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -1675,18 +1684,20 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="14">
-        <v>255</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="G26" s="13" t="s">
         <v>27</v>
       </c>
@@ -1700,10 +1711,10 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>22</v>
@@ -1725,10 +1736,10 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>22</v>
@@ -1750,10 +1761,10 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>22</v>
@@ -1775,10 +1786,10 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>22</v>
@@ -1800,10 +1811,10 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>22</v>
@@ -1825,10 +1836,10 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>22</v>
@@ -1850,10 +1861,10 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>22</v>
@@ -1875,10 +1886,10 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>22</v>
@@ -1900,16 +1911,16 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E35" s="14">
-        <v>4000</v>
+        <v>255</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="13" t="s">
@@ -1925,10 +1936,10 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>24</v>
@@ -1950,15 +1961,17 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="E37" s="14">
+        <v>4000</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="13" t="s">
         <v>27</v>
@@ -1967,16 +1980,16 @@
         <v>28</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>23</v>
@@ -1996,17 +2009,15 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="14">
-        <v>255</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="13" t="s">
         <v>27</v>
@@ -2015,16 +2026,16 @@
         <v>28</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>25</v>
@@ -2043,23 +2054,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E41" s="14">
         <v>255</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="F41" s="14"/>
       <c r="G41" s="13" t="s">
         <v>27</v>
       </c>
@@ -2067,19 +2076,19 @@
         <v>28</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E42" s="14">
         <v>255</v>
@@ -2097,129 +2106,131 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
+    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="14">
+        <v>255</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F45" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="21" t="s">
+      <c r="C46" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="21" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="14">
-        <v>64</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="13" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E48" s="14">
         <v>64</v>
@@ -2241,20 +2252,20 @@
         <v>140</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E49" s="14">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>30</v>
@@ -2266,22 +2277,20 @@
         <v>141</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" s="14">
-        <v>512</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F50" s="14"/>
       <c r="G50" s="13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>30</v>
@@ -2293,16 +2302,16 @@
         <v>142</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E51" s="14">
-        <v>2</v>
+        <v>512</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>8</v>
@@ -2320,42 +2329,42 @@
         <v>143</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E52" s="14">
-        <v>128</v>
-      </c>
-      <c r="F52" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="G52" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>96</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E53" s="14">
+        <v>128</v>
+      </c>
+      <c r="F53" s="14"/>
       <c r="G53" s="13" t="s">
         <v>27</v>
       </c>
@@ -2363,34 +2372,88 @@
         <v>28</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
